--- a/tunable_monochromator/resolutions_and_efficiencies.xlsx
+++ b/tunable_monochromator/resolutions_and_efficiencies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>hkl</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>100meV</t>
+  </si>
+  <si>
+    <t>H polarization</t>
+  </si>
+  <si>
+    <t>V polarization</t>
+  </si>
+  <si>
+    <t>pol factor=0</t>
   </si>
 </sst>
 </file>
@@ -95,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,18 +135,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,831 +444,958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>17.795000000000002</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>660</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>2*2.9</f>
         <v>5.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>2*1.3</f>
         <v>2.6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000000</v>
       </c>
-      <c r="G6">
-        <f>F6/$F$6</f>
+      <c r="H6">
+        <f>G6/$G$6</f>
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17.795000000000002</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>444</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>2*27</f>
         <v>54</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>2*12.8</f>
         <v>25.6</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1000000</v>
       </c>
-      <c r="O6">
-        <f>N6/$N$6</f>
+      <c r="P6">
+        <f>O6/$O$6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>612404</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G12" si="0">F7/$F$6</f>
+      <c r="H7">
+        <f>G7/$G$6</f>
         <v>0.61240399999999995</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>964680</v>
       </c>
-      <c r="O7">
-        <f t="shared" ref="O7:O12" si="1">N7/$N$6</f>
+      <c r="P7">
+        <f>O7/$O$6</f>
         <v>0.96467999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>193577</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f>G8/$G$6</f>
         <v>0.193577</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>765647</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
+      <c r="P8">
+        <f>O8/$O$6</f>
         <v>0.76564699999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>152768</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="H9">
+        <f>G9/$G$6</f>
         <v>0.15276799999999999</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>6</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>601718</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
+      <c r="P9">
+        <f>O9/$O$6</f>
         <v>0.60171799999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>129836</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="H10">
+        <f>G10/$G$6</f>
         <v>0.12983600000000001</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>7</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>509115</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
+      <c r="P10">
+        <f>O10/$O$6</f>
         <v>0.50911499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>40137</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="H11">
+        <f>G11/$G$6</f>
         <v>4.0136999999999999E-2</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>360951</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
+      <c r="P11">
+        <f>O11/$O$6</f>
         <v>0.36095100000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="2">
         <v>37558</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
+      <c r="H12" s="2">
+        <f>G12/$G$6</f>
         <v>3.7558000000000001E-2</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="2">
         <v>345599</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="1"/>
+      <c r="P12" s="2">
+        <f>O12/$O$6</f>
         <v>0.34559899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>660</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>2*4.6</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f>2*1.6</f>
         <v>3.2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1000000</v>
       </c>
-      <c r="G13">
-        <f>F13/$F$13</f>
+      <c r="H13">
+        <f>G13/$G$13</f>
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>16</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>444</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>2*26.6</f>
         <v>53.2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f>2*11.9</f>
         <v>23.8</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>3</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1000000</v>
       </c>
-      <c r="O13">
-        <f>N13/$N$13</f>
+      <c r="P13">
+        <f>O13/$O$13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>555032</v>
       </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G19" si="2">F14/$F$13</f>
+      <c r="H14">
+        <f>G14/$G$13</f>
         <v>0.55503199999999997</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>4</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>923309</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O19" si="3">N14/$N$13</f>
+      <c r="P14">
+        <f>O14/$O$13</f>
         <v>0.92330900000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>225872</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="H15">
+        <f>G15/$G$13</f>
         <v>0.22587199999999999</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>715430</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
+      <c r="P15">
+        <f>O15/$O$13</f>
         <v>0.71543000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>181705</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="H16">
+        <f>G16/$G$13</f>
         <v>0.18170500000000001</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>6</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>571979</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
+      <c r="P16">
+        <f>O16/$O$13</f>
         <v>0.57197900000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>156015</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="H17">
+        <f>G17/$G$13</f>
         <v>0.15601499999999999</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>7</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>488224</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
+      <c r="P17">
+        <f>O17/$O$13</f>
         <v>0.48822399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>63382</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="H18">
+        <f>G18/$G$13</f>
         <v>6.3381999999999994E-2</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>13</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>355922</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
+      <c r="P18">
+        <f>O18/$O$13</f>
         <v>0.35592200000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="2">
         <v>59122</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
+      <c r="H19" s="2">
+        <f>G19/$G$13</f>
         <v>5.9122000000000001E-2</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="2">
         <v>337858</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="3"/>
+      <c r="P19" s="2">
+        <f>O19/$O$13</f>
         <v>0.33785799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>660</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f>2*6.6</f>
         <v>13.2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f>2*2.1</f>
         <v>4.2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1000000</v>
       </c>
-      <c r="G20">
-        <f>F20/$F$20</f>
+      <c r="H20">
+        <f>G20/$G$20</f>
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>444</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>2*25.7</f>
         <v>51.4</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>2*11.3</f>
         <v>22.6</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1000000</v>
       </c>
-      <c r="O20">
-        <f>N20/$N$20</f>
+      <c r="P20">
+        <f>O20/$O$20</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>488383</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G26" si="4">F21/$F$20</f>
+      <c r="H21">
+        <f>G21/$G$20</f>
         <v>0.48838300000000001</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>4</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>841574</v>
       </c>
-      <c r="O21">
-        <f t="shared" ref="O21:O26" si="5">N21/$N$20</f>
+      <c r="P21">
+        <f>O21/$O$20</f>
         <v>0.84157400000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>241378</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
+      <c r="H22">
+        <f>G22/$G$20</f>
         <v>0.24137800000000001</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>5</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>646337</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="5"/>
+      <c r="P22">
+        <f>O22/$O$20</f>
         <v>0.64633700000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>196802</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
+      <c r="H23">
+        <f>G23/$G$20</f>
         <v>0.196802</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>6</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>523346</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="5"/>
+      <c r="P23">
+        <f>O23/$O$20</f>
         <v>0.52334599999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>169159</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
+      <c r="H24">
+        <f>G24/$G$20</f>
         <v>0.169159</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>7</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>446809</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="5"/>
+      <c r="P24">
+        <f>O24/$O$20</f>
         <v>0.44680900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>86400</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
+      <c r="H25">
+        <f>G25/$G$20</f>
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>13</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>336778</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="5"/>
+      <c r="P25">
+        <f>O25/$O$20</f>
         <v>0.33677800000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+    <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="2">
         <v>79733</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" si="4"/>
+      <c r="H26" s="2">
+        <f>G26/$G$20</f>
         <v>7.9732999999999998E-2</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="2">
         <v>315824</v>
       </c>
-      <c r="O26" s="3">
-        <f t="shared" si="5"/>
+      <c r="P26" s="2">
+        <f>O26/$O$20</f>
         <v>0.31582399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>660</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f>2*8.3</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f>2*2.5</f>
         <v>5</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1000000</v>
       </c>
-      <c r="G27">
-        <f>F27/$F$7</f>
-        <v>1.6329089947159066</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
+        <f>G27/$G$6</f>
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>12</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>444</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f>2*24.1</f>
         <v>48.2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>2*10.5</f>
         <v>21</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>3</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1000000</v>
       </c>
-      <c r="O27">
-        <f>N27/$N$27</f>
+      <c r="P27">
+        <f>O27/$O$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>419439</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G33" si="6">F28/$F$7</f>
-        <v>0.6849057158346451</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="H28">
+        <f t="shared" ref="H28:H33" si="0">G28/$G$6</f>
+        <v>0.41943900000000001</v>
+      </c>
+      <c r="N28" t="s">
         <v>4</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>739838</v>
       </c>
-      <c r="O28">
-        <f t="shared" ref="O28:O33" si="7">N28/$N$27</f>
+      <c r="P28">
+        <f>O28/$O$27</f>
         <v>0.739838</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>241907</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
-        <v>0.3950121161847408</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.24190700000000001</v>
+      </c>
+      <c r="N29" t="s">
         <v>5</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>562730</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
+      <c r="P29">
+        <f>O29/$O$27</f>
         <v>0.56272999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>198852</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>0.32470721941724745</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.198852</v>
+      </c>
+      <c r="N30" t="s">
         <v>6</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>460007</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
+      <c r="P30">
+        <f>O30/$O$27</f>
         <v>0.460007</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>172661</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>0.28193969993664314</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.17266100000000001</v>
+      </c>
+      <c r="N31" t="s">
         <v>7</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>397292</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
+      <c r="P31">
+        <f>O31/$O$27</f>
         <v>0.39729199999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>106814</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>0.17441754136158483</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.10681400000000001</v>
+      </c>
+      <c r="N32" t="s">
         <v>13</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>309194</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
+      <c r="P32">
+        <f>O32/$O$27</f>
         <v>0.30919400000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="3">
         <v>96747</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
-        <v>0.1579790465117798</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>9.6747E-2</v>
+      </c>
+      <c r="N33" t="s">
         <v>8</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>285242</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
+      <c r="P33">
+        <f>O33/$O$27</f>
         <v>0.285242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>11.215</v>
+      </c>
+      <c r="C38">
+        <v>440</v>
+      </c>
+      <c r="D38">
+        <v>5.8</v>
+      </c>
+      <c r="E38">
+        <v>1.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>20787</v>
+      </c>
+      <c r="H38">
+        <f>G38/1000000</f>
+        <v>2.0787E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>11.215</v>
+      </c>
+      <c r="C39">
+        <v>444</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>11.215</v>
+      </c>
+      <c r="C40">
+        <v>333</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>98363</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H39:H40" si="1">G40/1000000</f>
+        <v>9.8363000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/tunable_monochromator/resolutions_and_efficiencies.xlsx
+++ b/tunable_monochromator/resolutions_and_efficiencies.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tunable_monochromator/resolutions_and_efficiencies.xlsx
+++ b/tunable_monochromator/resolutions_and_efficiencies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>hkl</t>
   </si>
@@ -81,12 +81,39 @@
   </si>
   <si>
     <t>pol factor=0</t>
+  </si>
+  <si>
+    <t>Dec. 2020</t>
+  </si>
+  <si>
+    <t>Heat load</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>sig_z (dispersion direction) (nrad)</t>
+  </si>
+  <si>
+    <t>hkl / miscut (deg)</t>
+  </si>
+  <si>
+    <t>bandwidth after</t>
+  </si>
+  <si>
+    <t>bandwidth source (eV)</t>
+  </si>
+  <si>
+    <t>deposited fraction (lost)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -164,6 +191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,21 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
@@ -546,7 +579,7 @@
         <v>1000000</v>
       </c>
       <c r="H6">
-        <f>G6/$G$6</f>
+        <f t="shared" ref="H6:H12" si="0">G6/$G$6</f>
         <v>1</v>
       </c>
       <c r="J6">
@@ -570,7 +603,7 @@
         <v>1000000</v>
       </c>
       <c r="P6">
-        <f>O6/$O$6</f>
+        <f t="shared" ref="P6:P12" si="1">O6/$O$6</f>
         <v>1</v>
       </c>
     </row>
@@ -582,7 +615,7 @@
         <v>612404</v>
       </c>
       <c r="H7">
-        <f>G7/$G$6</f>
+        <f t="shared" si="0"/>
         <v>0.61240399999999995</v>
       </c>
       <c r="N7" t="s">
@@ -592,7 +625,7 @@
         <v>964680</v>
       </c>
       <c r="P7">
-        <f>O7/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.96467999999999998</v>
       </c>
     </row>
@@ -604,7 +637,7 @@
         <v>193577</v>
       </c>
       <c r="H8">
-        <f>G8/$G$6</f>
+        <f t="shared" si="0"/>
         <v>0.193577</v>
       </c>
       <c r="N8" t="s">
@@ -614,7 +647,7 @@
         <v>765647</v>
       </c>
       <c r="P8">
-        <f>O8/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.76564699999999997</v>
       </c>
     </row>
@@ -626,7 +659,7 @@
         <v>152768</v>
       </c>
       <c r="H9">
-        <f>G9/$G$6</f>
+        <f t="shared" si="0"/>
         <v>0.15276799999999999</v>
       </c>
       <c r="N9" t="s">
@@ -636,7 +669,7 @@
         <v>601718</v>
       </c>
       <c r="P9">
-        <f>O9/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.60171799999999998</v>
       </c>
     </row>
@@ -648,7 +681,7 @@
         <v>129836</v>
       </c>
       <c r="H10">
-        <f>G10/$G$6</f>
+        <f t="shared" si="0"/>
         <v>0.12983600000000001</v>
       </c>
       <c r="N10" t="s">
@@ -658,7 +691,7 @@
         <v>509115</v>
       </c>
       <c r="P10">
-        <f>O10/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.50911499999999998</v>
       </c>
     </row>
@@ -670,7 +703,7 @@
         <v>40137</v>
       </c>
       <c r="H11">
-        <f>G11/$G$6</f>
+        <f t="shared" si="0"/>
         <v>4.0136999999999999E-2</v>
       </c>
       <c r="N11" t="s">
@@ -680,7 +713,7 @@
         <v>360951</v>
       </c>
       <c r="P11">
-        <f>O11/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.36095100000000002</v>
       </c>
     </row>
@@ -696,7 +729,7 @@
         <v>37558</v>
       </c>
       <c r="H12" s="2">
-        <f>G12/$G$6</f>
+        <f t="shared" si="0"/>
         <v>3.7558000000000001E-2</v>
       </c>
       <c r="J12" s="2"/>
@@ -710,7 +743,7 @@
         <v>345599</v>
       </c>
       <c r="P12" s="2">
-        <f>O12/$O$6</f>
+        <f t="shared" si="1"/>
         <v>0.34559899999999999</v>
       </c>
     </row>
@@ -736,7 +769,7 @@
         <v>1000000</v>
       </c>
       <c r="H13">
-        <f>G13/$G$13</f>
+        <f t="shared" ref="H13:H19" si="2">G13/$G$13</f>
         <v>1</v>
       </c>
       <c r="J13">
@@ -760,7 +793,7 @@
         <v>1000000</v>
       </c>
       <c r="P13">
-        <f>O13/$O$13</f>
+        <f t="shared" ref="P13:P19" si="3">O13/$O$13</f>
         <v>1</v>
       </c>
     </row>
@@ -772,7 +805,7 @@
         <v>555032</v>
       </c>
       <c r="H14">
-        <f>G14/$G$13</f>
+        <f t="shared" si="2"/>
         <v>0.55503199999999997</v>
       </c>
       <c r="N14" t="s">
@@ -782,7 +815,7 @@
         <v>923309</v>
       </c>
       <c r="P14">
-        <f>O14/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.92330900000000005</v>
       </c>
     </row>
@@ -794,7 +827,7 @@
         <v>225872</v>
       </c>
       <c r="H15">
-        <f>G15/$G$13</f>
+        <f t="shared" si="2"/>
         <v>0.22587199999999999</v>
       </c>
       <c r="N15" t="s">
@@ -804,7 +837,7 @@
         <v>715430</v>
       </c>
       <c r="P15">
-        <f>O15/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.71543000000000001</v>
       </c>
     </row>
@@ -816,7 +849,7 @@
         <v>181705</v>
       </c>
       <c r="H16">
-        <f>G16/$G$13</f>
+        <f t="shared" si="2"/>
         <v>0.18170500000000001</v>
       </c>
       <c r="N16" t="s">
@@ -826,7 +859,7 @@
         <v>571979</v>
       </c>
       <c r="P16">
-        <f>O16/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.57197900000000002</v>
       </c>
     </row>
@@ -838,7 +871,7 @@
         <v>156015</v>
       </c>
       <c r="H17">
-        <f>G17/$G$13</f>
+        <f t="shared" si="2"/>
         <v>0.15601499999999999</v>
       </c>
       <c r="N17" t="s">
@@ -848,7 +881,7 @@
         <v>488224</v>
       </c>
       <c r="P17">
-        <f>O17/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.48822399999999999</v>
       </c>
     </row>
@@ -860,7 +893,7 @@
         <v>63382</v>
       </c>
       <c r="H18">
-        <f>G18/$G$13</f>
+        <f t="shared" si="2"/>
         <v>6.3381999999999994E-2</v>
       </c>
       <c r="N18" t="s">
@@ -870,7 +903,7 @@
         <v>355922</v>
       </c>
       <c r="P18">
-        <f>O18/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.35592200000000002</v>
       </c>
     </row>
@@ -886,7 +919,7 @@
         <v>59122</v>
       </c>
       <c r="H19" s="2">
-        <f>G19/$G$13</f>
+        <f t="shared" si="2"/>
         <v>5.9122000000000001E-2</v>
       </c>
       <c r="J19" s="2"/>
@@ -900,7 +933,7 @@
         <v>337858</v>
       </c>
       <c r="P19" s="2">
-        <f>O19/$O$13</f>
+        <f t="shared" si="3"/>
         <v>0.33785799999999999</v>
       </c>
     </row>
@@ -926,7 +959,7 @@
         <v>1000000</v>
       </c>
       <c r="H20">
-        <f>G20/$G$20</f>
+        <f t="shared" ref="H20:H26" si="4">G20/$G$20</f>
         <v>1</v>
       </c>
       <c r="J20">
@@ -950,7 +983,7 @@
         <v>1000000</v>
       </c>
       <c r="P20">
-        <f>O20/$O$20</f>
+        <f t="shared" ref="P20:P26" si="5">O20/$O$20</f>
         <v>1</v>
       </c>
     </row>
@@ -962,7 +995,7 @@
         <v>488383</v>
       </c>
       <c r="H21">
-        <f>G21/$G$20</f>
+        <f t="shared" si="4"/>
         <v>0.48838300000000001</v>
       </c>
       <c r="N21" t="s">
@@ -972,7 +1005,7 @@
         <v>841574</v>
       </c>
       <c r="P21">
-        <f>O21/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.84157400000000004</v>
       </c>
     </row>
@@ -984,7 +1017,7 @@
         <v>241378</v>
       </c>
       <c r="H22">
-        <f>G22/$G$20</f>
+        <f t="shared" si="4"/>
         <v>0.24137800000000001</v>
       </c>
       <c r="N22" t="s">
@@ -994,7 +1027,7 @@
         <v>646337</v>
       </c>
       <c r="P22">
-        <f>O22/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.64633700000000005</v>
       </c>
     </row>
@@ -1006,7 +1039,7 @@
         <v>196802</v>
       </c>
       <c r="H23">
-        <f>G23/$G$20</f>
+        <f t="shared" si="4"/>
         <v>0.196802</v>
       </c>
       <c r="N23" t="s">
@@ -1016,7 +1049,7 @@
         <v>523346</v>
       </c>
       <c r="P23">
-        <f>O23/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.52334599999999998</v>
       </c>
     </row>
@@ -1028,7 +1061,7 @@
         <v>169159</v>
       </c>
       <c r="H24">
-        <f>G24/$G$20</f>
+        <f t="shared" si="4"/>
         <v>0.169159</v>
       </c>
       <c r="N24" t="s">
@@ -1038,7 +1071,7 @@
         <v>446809</v>
       </c>
       <c r="P24">
-        <f>O24/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.44680900000000001</v>
       </c>
     </row>
@@ -1050,7 +1083,7 @@
         <v>86400</v>
       </c>
       <c r="H25">
-        <f>G25/$G$20</f>
+        <f t="shared" si="4"/>
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="N25" t="s">
@@ -1060,7 +1093,7 @@
         <v>336778</v>
       </c>
       <c r="P25">
-        <f>O25/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.33677800000000002</v>
       </c>
     </row>
@@ -1076,7 +1109,7 @@
         <v>79733</v>
       </c>
       <c r="H26" s="2">
-        <f>G26/$G$20</f>
+        <f t="shared" si="4"/>
         <v>7.9732999999999998E-2</v>
       </c>
       <c r="J26" s="2"/>
@@ -1090,7 +1123,7 @@
         <v>315824</v>
       </c>
       <c r="P26" s="2">
-        <f>O26/$O$20</f>
+        <f t="shared" si="5"/>
         <v>0.31582399999999999</v>
       </c>
     </row>
@@ -1140,7 +1173,7 @@
         <v>1000000</v>
       </c>
       <c r="P27">
-        <f>O27/$O$27</f>
+        <f t="shared" ref="P27:P33" si="6">O27/$O$27</f>
         <v>1</v>
       </c>
     </row>
@@ -1152,7 +1185,7 @@
         <v>419439</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H33" si="0">G28/$G$6</f>
+        <f t="shared" ref="H28:H33" si="7">G28/$G$6</f>
         <v>0.41943900000000001</v>
       </c>
       <c r="N28" t="s">
@@ -1162,7 +1195,7 @@
         <v>739838</v>
       </c>
       <c r="P28">
-        <f>O28/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.739838</v>
       </c>
     </row>
@@ -1174,7 +1207,7 @@
         <v>241907</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.24190700000000001</v>
       </c>
       <c r="N29" t="s">
@@ -1184,7 +1217,7 @@
         <v>562730</v>
       </c>
       <c r="P29">
-        <f>O29/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.56272999999999995</v>
       </c>
     </row>
@@ -1196,7 +1229,7 @@
         <v>198852</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.198852</v>
       </c>
       <c r="N30" t="s">
@@ -1206,7 +1239,7 @@
         <v>460007</v>
       </c>
       <c r="P30">
-        <f>O30/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.460007</v>
       </c>
     </row>
@@ -1218,7 +1251,7 @@
         <v>172661</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.17266100000000001</v>
       </c>
       <c r="N31" t="s">
@@ -1228,7 +1261,7 @@
         <v>397292</v>
       </c>
       <c r="P31">
-        <f>O31/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.39729199999999998</v>
       </c>
     </row>
@@ -1240,7 +1273,7 @@
         <v>106814</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.10681400000000001</v>
       </c>
       <c r="N32" t="s">
@@ -1250,7 +1283,7 @@
         <v>309194</v>
       </c>
       <c r="P32">
-        <f>O32/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.30919400000000002</v>
       </c>
     </row>
@@ -1265,7 +1298,7 @@
         <v>96747</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>9.6747E-2</v>
       </c>
       <c r="N33" t="s">
@@ -1275,7 +1308,7 @@
         <v>285242</v>
       </c>
       <c r="P33">
-        <f>O33/$O$27</f>
+        <f t="shared" si="6"/>
         <v>0.285242</v>
       </c>
     </row>
@@ -1394,10 +1427,249 @@
         <v>98363</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H39:H40" si="1">G40/1000000</f>
+        <f t="shared" ref="H40" si="8">G40/1000000</f>
         <v>9.8363000000000006E-2</v>
       </c>
     </row>
+    <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>17.995000000000001</v>
+      </c>
+      <c r="C50">
+        <v>660</v>
+      </c>
+      <c r="D50">
+        <v>0.15</v>
+      </c>
+      <c r="E50" s="9">
+        <v>4.66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="10"/>
+      <c r="I50">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>29.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>70929</v>
+      </c>
+      <c r="H51" s="10">
+        <f>1-G51/G50</f>
+        <v>0.92907099999999998</v>
+      </c>
+      <c r="I51">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2">
+        <v>14263</v>
+      </c>
+      <c r="H52" s="11">
+        <f>1-G52/G51</f>
+        <v>0.79891158764398207</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>12.664999999999999</v>
+      </c>
+      <c r="C53">
+        <v>660</v>
+      </c>
+      <c r="D53">
+        <v>0.11</v>
+      </c>
+      <c r="E53">
+        <v>6.21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>29.5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="12">
+        <v>22213</v>
+      </c>
+      <c r="H54">
+        <f>1-G54/G53</f>
+        <v>0.97778699999999996</v>
+      </c>
+      <c r="I54" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>7170</v>
+      </c>
+      <c r="H55" s="2">
+        <f>1-G55/G54</f>
+        <v>0.67721604465853336</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>9.4809999999999999</v>
+      </c>
+      <c r="C56">
+        <v>440</v>
+      </c>
+      <c r="D56">
+        <v>0.08</v>
+      </c>
+      <c r="E56">
+        <v>7.88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I56" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>29.5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="12">
+        <v>19733</v>
+      </c>
+      <c r="H57">
+        <f>1-G57/G56</f>
+        <v>0.980267</v>
+      </c>
+      <c r="I57" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="13">
+        <v>2332</v>
+      </c>
+      <c r="H58" s="2">
+        <f>1-G58/G57</f>
+        <v>0.88182232807986627</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tunable_monochromator/resolutions_and_efficiencies.xlsx
+++ b/tunable_monochromator/resolutions_and_efficiencies.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>hkl</t>
   </si>
@@ -105,14 +105,24 @@
   </si>
   <si>
     <t>deposited fraction (lost)</t>
+  </si>
+  <si>
+    <t>detector</t>
+  </si>
+  <si>
+    <t>crl1</t>
+  </si>
+  <si>
+    <t>S polarization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -192,10 +202,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1477,7 @@
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
@@ -1484,7 +1500,7 @@
       <c r="H49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1508,7 +1524,7 @@
         <v>1000000</v>
       </c>
       <c r="H50" s="10"/>
-      <c r="I50">
+      <c r="I50" s="15">
         <v>0.18</v>
       </c>
     </row>
@@ -1520,156 +1536,254 @@
         <v>4</v>
       </c>
       <c r="G51">
-        <v>70929</v>
+        <v>172344</v>
       </c>
       <c r="H51" s="10">
         <f>1-G51/G50</f>
-        <v>0.92907099999999998</v>
-      </c>
-      <c r="I51">
+        <v>0.82765599999999995</v>
+      </c>
+      <c r="I51" s="15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>39519</v>
+      </c>
+      <c r="H52" s="14">
+        <f>1-G52/G51</f>
+        <v>0.77069697813674976</v>
+      </c>
+      <c r="I52" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="12">
+        <v>29632</v>
+      </c>
+      <c r="H53" s="14">
+        <f t="shared" ref="H53:H54" si="9">1-G53/G52</f>
+        <v>0.25018345605911085</v>
+      </c>
+      <c r="I53" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2">
+        <v>17926</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39504589632829379</v>
+      </c>
+      <c r="I54" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>12.664999999999999</v>
+      </c>
+      <c r="C55">
+        <v>660</v>
+      </c>
+      <c r="D55">
+        <v>0.11</v>
+      </c>
+      <c r="E55">
+        <v>6.21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>29.5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="12">
+        <v>169387</v>
+      </c>
+      <c r="H56" s="10">
+        <f>1-G56/G55</f>
+        <v>0.83061300000000005</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>86847</v>
+      </c>
+      <c r="H57" s="14">
+        <f>1-G57/G56</f>
+        <v>0.48728650959046449</v>
+      </c>
+      <c r="I57" s="16">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="12">
+        <v>65328</v>
+      </c>
+      <c r="H58" s="14">
+        <f t="shared" ref="H58:H59" si="10">1-G58/G57</f>
+        <v>0.24778057964005662</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="2">
+        <v>40008</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="10"/>
+        <v>0.387582659808964</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>9.4809999999999999</v>
+      </c>
+      <c r="C60">
+        <v>440</v>
+      </c>
+      <c r="D60">
+        <v>0.08</v>
+      </c>
+      <c r="E60">
+        <v>7.88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I60" s="17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>29.5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="12">
+        <v>467970</v>
+      </c>
+      <c r="H61" s="10">
+        <f>1-G61/G$60</f>
+        <v>0.53203</v>
+      </c>
+      <c r="I61" s="17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="2">
-        <v>14263</v>
-      </c>
-      <c r="H52" s="11">
-        <f>1-G52/G51</f>
-        <v>0.79891158764398207</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>12.664999999999999</v>
-      </c>
-      <c r="C53">
-        <v>660</v>
-      </c>
-      <c r="D53">
-        <v>0.11</v>
-      </c>
-      <c r="E53">
-        <v>6.21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>29.5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="12">
-        <v>22213</v>
-      </c>
-      <c r="H54">
-        <f>1-G54/G53</f>
-        <v>0.97778699999999996</v>
-      </c>
-      <c r="I54" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="2">
-        <v>7170</v>
-      </c>
-      <c r="H55" s="2">
-        <f>1-G55/G54</f>
-        <v>0.67721604465853336</v>
-      </c>
-      <c r="I55" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>9.4809999999999999</v>
-      </c>
-      <c r="C56">
-        <v>440</v>
-      </c>
-      <c r="D56">
-        <v>0.08</v>
-      </c>
-      <c r="E56">
-        <v>7.88</v>
-      </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="I56" s="12">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>29.5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="12">
-        <v>19733</v>
-      </c>
-      <c r="H57">
-        <f>1-G57/G56</f>
-        <v>0.980267</v>
-      </c>
-      <c r="I57" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="13">
-        <v>2332</v>
-      </c>
-      <c r="H58" s="2">
-        <f>1-G58/G57</f>
-        <v>0.88182232807986627</v>
-      </c>
-      <c r="I58" s="13">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G62" s="12">
+        <v>238683</v>
+      </c>
+      <c r="H62" s="14">
+        <f>1-G62/G61</f>
+        <v>0.48996089492916217</v>
+      </c>
+      <c r="I62" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="12">
+        <v>183269</v>
+      </c>
+      <c r="H63" s="14">
+        <f>1-G63/G62</f>
+        <v>0.23216567581268877</v>
+      </c>
+      <c r="I63" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="13">
+        <v>110315</v>
+      </c>
+      <c r="H64" s="11">
+        <f>1-G64/G63</f>
+        <v>0.3980705956817574</v>
+      </c>
+      <c r="I64" s="19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
